--- a/data_tmp_file.xlsx
+++ b/data_tmp_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadryshnikova/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF4711B-64F3-8646-A4E0-38876A072379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301C551-FB56-BD45-9FD2-D48A528B5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{2D2BABC9-95F8-4F9B-8560-F5C7EEA4774E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14400" xr2:uid="{2D2BABC9-95F8-4F9B-8560-F5C7EEA4774E}"/>
   </bookViews>
   <sheets>
     <sheet name="Выгрузка" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8FC71E53-C3CD-44F1-9E10-4243A84A728F}" name="Запрос — Выгрузка" description="Соединение с запросом &quot;Выгрузка&quot; в книге." type="100" refreshedVersion="6" minRefreshableVersion="5">
-    <extLst>
-      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="f63f8abc-fd1f-40f4-bc47-6db1e67d4005"/>
-      </ext>
-    </extLst>
-  </connection>
-  <connection id="2" xr16:uid="{58D150B1-7B09-4972-AD1F-54D3EF931289}" keepAlive="1" name="Запрос — list" description="Соединение с запросом &quot;list&quot; в книге." type="5" refreshedVersion="0" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=list;Extended Properties=&quot;&quot;" command="SELECT * FROM [list]"/>
-  </connection>
-  <connection id="3" xr16:uid="{89BDDCD7-789E-4140-B657-A399E6A43682}" keepAlive="1" name="Запрос — Projects(1)" description="Соединение с запросом &quot;Projects&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Projects;Extended Properties=&quot;&quot;" command="SELECT * FROM [Projects]"/>
-  </connection>
-  <connection id="4" xr16:uid="{FC5A3305-D170-48D3-9595-DD9E9968D300}" keepAlive="1" name="Запрос — Tasks" description="Соединение с запросом &quot;Tasks&quot; в книге." type="5" refreshedVersion="0" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Tasks;Extended Properties=&quot;&quot;" command="SELECT * FROM [Tasks]"/>
-  </connection>
-  <connection id="5" xr16:uid="{F71A53BA-8087-4694-B01E-B4B86ED532A6}" keepAlive="1" name="ModelConnection_ExternalData_1" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" saveData="1">
+  <connection id="1" xr16:uid="{F71A53BA-8087-4694-B01E-B4B86ED532A6}" keepAlive="1" name="ModelConnection_ExternalData_1" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" saveData="1">
     <dbPr connection="Data Model Connection" command="Выгрузка" commandType="3"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -60,7 +44,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="6" xr16:uid="{FB1A41A2-C178-4BCD-8A79-907F326B57E8}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+  <connection id="2" xr16:uid="{FB1A41A2-C178-4BCD-8A79-907F326B57E8}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -69,11 +53,27 @@
       </ext>
     </extLst>
   </connection>
+  <connection id="3" xr16:uid="{58D150B1-7B09-4972-AD1F-54D3EF931289}" keepAlive="1" name="Запрос — list" description="Соединение с запросом &quot;list&quot; в книге." type="5" refreshedVersion="0" background="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=list;Extended Properties=&quot;&quot;" command="SELECT * FROM [list]"/>
+  </connection>
+  <connection id="4" xr16:uid="{89BDDCD7-789E-4140-B657-A399E6A43682}" keepAlive="1" name="Запрос — Projects(1)" description="Соединение с запросом &quot;Projects&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Projects;Extended Properties=&quot;&quot;" command="SELECT * FROM [Projects]"/>
+  </connection>
+  <connection id="5" xr16:uid="{FC5A3305-D170-48D3-9595-DD9E9968D300}" keepAlive="1" name="Запрос — Tasks" description="Соединение с запросом &quot;Tasks&quot; в книге." type="5" refreshedVersion="0" background="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Tasks;Extended Properties=&quot;&quot;" command="SELECT * FROM [Tasks]"/>
+  </connection>
+  <connection id="6" xr16:uid="{8FC71E53-C3CD-44F1-9E10-4243A84A728F}" name="Запрос — Выгрузка" description="Соединение с запросом &quot;Выгрузка&quot; в книге." type="100" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="f63f8abc-fd1f-40f4-bc47-6db1e67d4005"/>
+      </ext>
+    </extLst>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Дошкольные учреждения</t>
   </si>
@@ -182,13 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -306,7 +305,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="5" xr16:uid="{60AB3104-EE11-4EE3-AD4B-F5C07ACA2C53}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="1" xr16:uid="{60AB3104-EE11-4EE3-AD4B-F5C07ACA2C53}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="28">
     <queryTableFields count="15">
       <queryTableField id="13" name="№ п/п" tableColumnId="1"/>
@@ -362,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -508,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427A16B1-E58C-49FA-85FF-CE2B1D26232B}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,44 +746,165 @@
       <c r="A2">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>44138</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>44593</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>44138</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>44559</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44138</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44593</v>
+      </c>
+      <c r="L3" s="1">
+        <v>44138</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44138</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44593</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44138</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44138</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44593</v>
+      </c>
+      <c r="L5" s="1">
+        <v>44138</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44559</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
